--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\My_project\Hardware\AL.Car.Alarm.PCB.DP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\My_project\Hardware\AL.Car.Alarm.PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>#</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>RC2512JK-071KL</t>
+  </si>
+  <si>
+    <t>Терра</t>
+  </si>
+  <si>
+    <t>RC2512JK-07100RL</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1042,7 @@
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1055,8 +1061,11 @@
       <c r="F1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1073,7 +1082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1090,7 +1099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1110,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1127,7 +1136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1147,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1167,7 +1176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1184,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1201,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1218,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1235,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1252,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1269,7 +1278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1289,7 +1298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1453,6 +1462,9 @@
       <c r="E24">
         <v>7</v>
       </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1529,5 +1541,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>